--- a/12_基本設計書_portfolio.xlsx
+++ b/12_基本設計書_portfolio.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29010"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A4AF409-B2A8-453B-A58D-8F2A61F7740E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED6EA86A-3153-4272-B43E-C2B6B08281C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_全体構成(構成概要シート)" sheetId="13" r:id="rId1"/>
@@ -173,7 +173,7 @@
     <t>②構成図パス</t>
   </si>
   <si>
-    <t>構成図をアップロードしたら更新する</t>
+    <t>https://github.com/Yu-onodera/portfolio/blob/main/13_%E6%A7%8B%E6%88%90%E5%9B%B3_portfolio.drawio.png</t>
   </si>
   <si>
     <t>③ファイル構成</t>
@@ -1418,15 +1418,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1449,8 +1450,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1483,9 +1485,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1790,9 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C773FC82-7C8B-4F33-BB8E-EC543F0EE0F2}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2024,7 +2025,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2074,6 +2075,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C53" r:id="rId1" xr:uid="{6CEC91FC-C4F2-484C-9108-B7C4EDA3BFCE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3010,9 +3014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B96C22-76FD-4437-B227-3B7A106DF525}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -3266,9 +3268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6431,7 +6431,7 @@
       <c r="G74" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H74" s="14" t="s">
+      <c r="H74" s="13" t="s">
         <v>337</v>
       </c>
     </row>
